--- a/data/GIS_MPQ_Analysis_3cm_Curvature.xlsx
+++ b/data/GIS_MPQ_Analysis_3cm_Curvature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25320" yWindow="240" windowWidth="25600" windowHeight="11640" tabRatio="500"/>
+    <workbookView xWindow="29180" yWindow="220" windowWidth="21740" windowHeight="11640" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Curvature" sheetId="2" r:id="rId1"/>
@@ -126,8 +126,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -206,6 +264,35 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -229,6 +316,35 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1062,8 +1178,29 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>22096</v>
+      </c>
+      <c r="E16">
+        <v>19.886399999999998</v>
+      </c>
+      <c r="F16">
+        <v>-113057.5625</v>
+      </c>
+      <c r="G16">
+        <v>94997.0625</v>
+      </c>
+      <c r="H16">
+        <v>208054.625</v>
+      </c>
+      <c r="I16">
+        <v>20.760270999999999</v>
+      </c>
+      <c r="J16">
+        <v>9277.4813969999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1073,8 +1210,29 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>22314</v>
+      </c>
+      <c r="E17">
+        <v>20.082599999999999</v>
+      </c>
+      <c r="F17">
+        <v>-79605</v>
+      </c>
+      <c r="G17">
+        <v>50441.476562999997</v>
+      </c>
+      <c r="H17">
+        <v>130046.476563</v>
+      </c>
+      <c r="I17">
+        <v>4.2869099999999998</v>
+      </c>
+      <c r="J17">
+        <v>6726.4234059999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1084,8 +1242,29 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>16131</v>
+      </c>
+      <c r="E18">
+        <v>14.517899999999999</v>
+      </c>
+      <c r="F18">
+        <v>-48516.960937999997</v>
+      </c>
+      <c r="G18">
+        <v>44731.777344000002</v>
+      </c>
+      <c r="H18">
+        <v>93248.738280999998</v>
+      </c>
+      <c r="I18">
+        <v>-12.991279</v>
+      </c>
+      <c r="J18">
+        <v>6157.7164089999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1095,8 +1274,29 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>19415</v>
+      </c>
+      <c r="E19">
+        <v>17.473500000000001</v>
+      </c>
+      <c r="F19">
+        <v>-92679.898438000004</v>
+      </c>
+      <c r="G19">
+        <v>93582.601563000004</v>
+      </c>
+      <c r="H19">
+        <v>186262.5</v>
+      </c>
+      <c r="I19">
+        <v>-1.1193040000000001</v>
+      </c>
+      <c r="J19">
+        <v>9120.9722089999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1106,8 +1306,29 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>18835</v>
+      </c>
+      <c r="E20">
+        <v>16.951499999999999</v>
+      </c>
+      <c r="F20">
+        <v>-78936.125</v>
+      </c>
+      <c r="G20">
+        <v>119264.101563</v>
+      </c>
+      <c r="H20">
+        <v>198200.226563</v>
+      </c>
+      <c r="I20">
+        <v>19.950292999999999</v>
+      </c>
+      <c r="J20">
+        <v>8421.8076760000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1117,8 +1338,29 @@
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>21400</v>
+      </c>
+      <c r="E21">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="F21">
+        <v>-143074.25</v>
+      </c>
+      <c r="G21">
+        <v>105557.46875</v>
+      </c>
+      <c r="H21">
+        <v>248631.71875</v>
+      </c>
+      <c r="I21">
+        <v>14.081272</v>
+      </c>
+      <c r="J21">
+        <v>9108.5376219999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1128,8 +1370,29 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>18613</v>
+      </c>
+      <c r="E22">
+        <v>16.7517</v>
+      </c>
+      <c r="F22">
+        <v>-64001.746094000002</v>
+      </c>
+      <c r="G22">
+        <v>58183.300780999998</v>
+      </c>
+      <c r="H22">
+        <v>122185.046875</v>
+      </c>
+      <c r="I22">
+        <v>22.793627999999998</v>
+      </c>
+      <c r="J22">
+        <v>6006.4417119999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1139,8 +1402,29 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>19843</v>
+      </c>
+      <c r="E23">
+        <v>17.858699999999999</v>
+      </c>
+      <c r="F23">
+        <v>-94722.539063000004</v>
+      </c>
+      <c r="G23">
+        <v>82953.867188000004</v>
+      </c>
+      <c r="H23">
+        <v>177676.40625</v>
+      </c>
+      <c r="I23">
+        <v>19.693408000000002</v>
+      </c>
+      <c r="J23">
+        <v>8616.8592590000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1149,6 +1433,27 @@
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D24">
+        <v>18845</v>
+      </c>
+      <c r="E24">
+        <v>16.9605</v>
+      </c>
+      <c r="F24">
+        <v>-177645.546875</v>
+      </c>
+      <c r="G24">
+        <v>120519.875</v>
+      </c>
+      <c r="H24">
+        <v>298165.421875</v>
+      </c>
+      <c r="I24">
+        <v>32.655202000000003</v>
+      </c>
+      <c r="J24">
+        <v>12259.073715</v>
       </c>
     </row>
   </sheetData>
@@ -1166,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1668,8 +1973,29 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>22096</v>
+      </c>
+      <c r="E16">
+        <v>19.886399999999998</v>
+      </c>
+      <c r="F16">
+        <v>-77939.507813000004</v>
+      </c>
+      <c r="G16">
+        <v>63492.152344000002</v>
+      </c>
+      <c r="H16">
+        <v>141431.660156</v>
+      </c>
+      <c r="I16">
+        <v>87.873146000000006</v>
+      </c>
+      <c r="J16">
+        <v>4347.5604960000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1679,8 +2005,29 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>22314</v>
+      </c>
+      <c r="E17">
+        <v>20.082599999999999</v>
+      </c>
+      <c r="F17">
+        <v>-37430.941405999998</v>
+      </c>
+      <c r="G17">
+        <v>26780.464843999998</v>
+      </c>
+      <c r="H17">
+        <v>64211.40625</v>
+      </c>
+      <c r="I17">
+        <v>124.46781799999999</v>
+      </c>
+      <c r="J17">
+        <v>3261.4611169999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1690,8 +2037,29 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>16131</v>
+      </c>
+      <c r="E18">
+        <v>14.517899999999999</v>
+      </c>
+      <c r="F18">
+        <v>-35157.300780999998</v>
+      </c>
+      <c r="G18">
+        <v>26354.185547000001</v>
+      </c>
+      <c r="H18">
+        <v>61511.486327999999</v>
+      </c>
+      <c r="I18">
+        <v>132.71728300000001</v>
+      </c>
+      <c r="J18">
+        <v>2951.3188719999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1701,8 +2069,29 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>19415</v>
+      </c>
+      <c r="E19">
+        <v>17.473500000000001</v>
+      </c>
+      <c r="F19">
+        <v>-53631.550780999998</v>
+      </c>
+      <c r="G19">
+        <v>51617.335937999997</v>
+      </c>
+      <c r="H19">
+        <v>105248.886719</v>
+      </c>
+      <c r="I19">
+        <v>107.79254299999999</v>
+      </c>
+      <c r="J19">
+        <v>4334.7871660000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1712,8 +2101,29 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>18835</v>
+      </c>
+      <c r="E20">
+        <v>16.951499999999999</v>
+      </c>
+      <c r="F20">
+        <v>-38377.035155999998</v>
+      </c>
+      <c r="G20">
+        <v>57585.492187999997</v>
+      </c>
+      <c r="H20">
+        <v>95962.527344000002</v>
+      </c>
+      <c r="I20">
+        <v>113.21618100000001</v>
+      </c>
+      <c r="J20">
+        <v>4045.466488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1723,8 +2133,29 @@
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>21400</v>
+      </c>
+      <c r="E21">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="F21">
+        <v>-76341.359375</v>
+      </c>
+      <c r="G21">
+        <v>62465.328125</v>
+      </c>
+      <c r="H21">
+        <v>138806.6875</v>
+      </c>
+      <c r="I21">
+        <v>122.871897</v>
+      </c>
+      <c r="J21">
+        <v>4395.6796850000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1734,8 +2165,29 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>18613</v>
+      </c>
+      <c r="E22">
+        <v>16.7517</v>
+      </c>
+      <c r="F22">
+        <v>-31937.058593999998</v>
+      </c>
+      <c r="G22">
+        <v>30746.246093999998</v>
+      </c>
+      <c r="H22">
+        <v>62683.304687999997</v>
+      </c>
+      <c r="I22">
+        <v>99.529325999999998</v>
+      </c>
+      <c r="J22">
+        <v>2766.8014210000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1745,8 +2197,29 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>19843</v>
+      </c>
+      <c r="E23">
+        <v>17.858699999999999</v>
+      </c>
+      <c r="F23">
+        <v>-54001.914062999997</v>
+      </c>
+      <c r="G23">
+        <v>59129.773437999997</v>
+      </c>
+      <c r="H23">
+        <v>113131.6875</v>
+      </c>
+      <c r="I23">
+        <v>136.55813599999999</v>
+      </c>
+      <c r="J23">
+        <v>4023.072885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1755,6 +2228,27 @@
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D24">
+        <v>18845</v>
+      </c>
+      <c r="E24">
+        <v>16.9605</v>
+      </c>
+      <c r="F24">
+        <v>-111126.960938</v>
+      </c>
+      <c r="G24">
+        <v>91346.828125</v>
+      </c>
+      <c r="H24">
+        <v>202473.789063</v>
+      </c>
+      <c r="I24">
+        <v>46.561487</v>
+      </c>
+      <c r="J24">
+        <v>5972.5656269999999</v>
       </c>
     </row>
   </sheetData>
@@ -1772,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2275,8 +2769,29 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>22096</v>
+      </c>
+      <c r="E16">
+        <v>19.886399999999998</v>
+      </c>
+      <c r="F16">
+        <v>-61546.707030999998</v>
+      </c>
+      <c r="G16">
+        <v>62662.535155999998</v>
+      </c>
+      <c r="H16">
+        <v>124209.242188</v>
+      </c>
+      <c r="I16">
+        <v>67.112870999999998</v>
+      </c>
+      <c r="J16">
+        <v>6063.3135350000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2286,8 +2801,29 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>22314</v>
+      </c>
+      <c r="E17">
+        <v>20.082599999999999</v>
+      </c>
+      <c r="F17">
+        <v>-33802.496094000002</v>
+      </c>
+      <c r="G17">
+        <v>42174.054687999997</v>
+      </c>
+      <c r="H17">
+        <v>75976.550780999998</v>
+      </c>
+      <c r="I17">
+        <v>120.180908</v>
+      </c>
+      <c r="J17">
+        <v>4283.4623220000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2297,8 +2833,29 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>16131</v>
+      </c>
+      <c r="E18">
+        <v>14.517899999999999</v>
+      </c>
+      <c r="F18">
+        <v>-24172.005859000001</v>
+      </c>
+      <c r="G18">
+        <v>28797.314452999999</v>
+      </c>
+      <c r="H18">
+        <v>52969.320312999997</v>
+      </c>
+      <c r="I18">
+        <v>145.708564</v>
+      </c>
+      <c r="J18">
+        <v>3973.0706340000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2308,8 +2865,29 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>19415</v>
+      </c>
+      <c r="E19">
+        <v>17.473500000000001</v>
+      </c>
+      <c r="F19">
+        <v>-52245.726562999997</v>
+      </c>
+      <c r="G19">
+        <v>48715.410155999998</v>
+      </c>
+      <c r="H19">
+        <v>100961.136719</v>
+      </c>
+      <c r="I19">
+        <v>108.91184699999999</v>
+      </c>
+      <c r="J19">
+        <v>5881.8981130000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2319,8 +2897,29 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>18835</v>
+      </c>
+      <c r="E20">
+        <v>16.951499999999999</v>
+      </c>
+      <c r="F20">
+        <v>-61678.605469000002</v>
+      </c>
+      <c r="G20">
+        <v>40559.089844000002</v>
+      </c>
+      <c r="H20">
+        <v>102237.695313</v>
+      </c>
+      <c r="I20">
+        <v>93.265889000000001</v>
+      </c>
+      <c r="J20">
+        <v>5405.6438870000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2330,8 +2929,29 @@
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>21400</v>
+      </c>
+      <c r="E21">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="F21">
+        <v>-60859.414062999997</v>
+      </c>
+      <c r="G21">
+        <v>66732.890625</v>
+      </c>
+      <c r="H21">
+        <v>127592.304688</v>
+      </c>
+      <c r="I21">
+        <v>108.79062500000001</v>
+      </c>
+      <c r="J21">
+        <v>5818.3414240000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2341,8 +2961,29 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>18613</v>
+      </c>
+      <c r="E22">
+        <v>16.7517</v>
+      </c>
+      <c r="F22">
+        <v>-39631.742187999997</v>
+      </c>
+      <c r="G22">
+        <v>48100.265625</v>
+      </c>
+      <c r="H22">
+        <v>87732.007813000004</v>
+      </c>
+      <c r="I22">
+        <v>76.735697000000002</v>
+      </c>
+      <c r="J22">
+        <v>4036.4183560000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2352,8 +2993,29 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>19843</v>
+      </c>
+      <c r="E23">
+        <v>17.858699999999999</v>
+      </c>
+      <c r="F23">
+        <v>-47754.503905999998</v>
+      </c>
+      <c r="G23">
+        <v>47029.464844000002</v>
+      </c>
+      <c r="H23">
+        <v>94783.96875</v>
+      </c>
+      <c r="I23">
+        <v>116.86472500000001</v>
+      </c>
+      <c r="J23">
+        <v>5743.853521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2362,6 +3024,27 @@
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D24">
+        <v>18845</v>
+      </c>
+      <c r="E24">
+        <v>16.9605</v>
+      </c>
+      <c r="F24">
+        <v>-59257.761719000002</v>
+      </c>
+      <c r="G24">
+        <v>84534.875</v>
+      </c>
+      <c r="H24">
+        <v>143792.636719</v>
+      </c>
+      <c r="I24">
+        <v>13.906283999999999</v>
+      </c>
+      <c r="J24">
+        <v>7789.2204760000004</v>
       </c>
     </row>
   </sheetData>

--- a/data/GIS_MPQ_Analysis_3cm_Curvature.xlsx
+++ b/data/GIS_MPQ_Analysis_3cm_Curvature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="220" windowWidth="21740" windowHeight="11640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28600" yWindow="640" windowWidth="21740" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Curvature" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="294">
   <si>
     <t>Site</t>
   </si>
@@ -63,6 +63,846 @@
   </si>
   <si>
     <t>May_2015</t>
+  </si>
+  <si>
+    <t>MEAN_CLIP</t>
+  </si>
+  <si>
+    <t>MIN_CLIP</t>
+  </si>
+  <si>
+    <t>MAX_CLIP</t>
+  </si>
+  <si>
+    <t>STD_CLIP</t>
+  </si>
+  <si>
+    <t>﻿10216.47126546095</t>
+  </si>
+  <si>
+    <t>﻿6.746042643184448</t>
+  </si>
+  <si>
+    <t>﻿76074.125</t>
+  </si>
+  <si>
+    <t>﻿-89454.3046875</t>
+  </si>
+  <si>
+    <t>﻿-47425.84375</t>
+  </si>
+  <si>
+    <t>﻿48516.96875</t>
+  </si>
+  <si>
+    <t>﻿-41.90714936079337</t>
+  </si>
+  <si>
+    <t>﻿4776.685634465866</t>
+  </si>
+  <si>
+    <t>﻿-43358.63671875</t>
+  </si>
+  <si>
+    <t>﻿44632.734375</t>
+  </si>
+  <si>
+    <t>﻿-48.65318945050093</t>
+  </si>
+  <si>
+    <t>﻿6893.057582391021</t>
+  </si>
+  <si>
+    <t>﻿-178010.65625</t>
+  </si>
+  <si>
+    <t>﻿138106.71875</t>
+  </si>
+  <si>
+    <t>﻿-3.417344685711707</t>
+  </si>
+  <si>
+    <t>﻿12366.74745376995</t>
+  </si>
+  <si>
+    <t>﻿-88464.2890625</t>
+  </si>
+  <si>
+    <t>﻿93684.0546875</t>
+  </si>
+  <si>
+    <t>﻿-96.32920471573502</t>
+  </si>
+  <si>
+    <t>﻿5453.29100618586</t>
+  </si>
+  <si>
+    <t>﻿-72004.6796875</t>
+  </si>
+  <si>
+    <t>﻿115161.515625</t>
+  </si>
+  <si>
+    <t>﻿-94.13067006356158</t>
+  </si>
+  <si>
+    <t>﻿7541.192149433806</t>
+  </si>
+  <si>
+    <t>﻿-80505.875</t>
+  </si>
+  <si>
+    <t>﻿73944.40625</t>
+  </si>
+  <si>
+    <t>﻿-20.79046085310842</t>
+  </si>
+  <si>
+    <t>﻿8383.890492274311</t>
+  </si>
+  <si>
+    <t>﻿-40505.2890625</t>
+  </si>
+  <si>
+    <t>﻿44609.53125</t>
+  </si>
+  <si>
+    <t>﻿-23.23518694944576</t>
+  </si>
+  <si>
+    <t>﻿4155.785976783451</t>
+  </si>
+  <si>
+    <t>﻿-37734.203125</t>
+  </si>
+  <si>
+    <t>﻿42929.7890625</t>
+  </si>
+  <si>
+    <t>﻿-2.444729394914623</t>
+  </si>
+  <si>
+    <t>﻿5412.199535721445</t>
+  </si>
+  <si>
+    <t>﻿-75034.3828125</t>
+  </si>
+  <si>
+    <t>﻿64643.3046875</t>
+  </si>
+  <si>
+    <t>﻿15.64066275677871</t>
+  </si>
+  <si>
+    <t>﻿6571.808098809466</t>
+  </si>
+  <si>
+    <t>﻿-30233.197265625</t>
+  </si>
+  <si>
+    <t>﻿28442.630859375</t>
+  </si>
+  <si>
+    <t>﻿85.89501665828979</t>
+  </si>
+  <si>
+    <t>﻿3156.599741442861</t>
+  </si>
+  <si>
+    <t>﻿-37174.671875</t>
+  </si>
+  <si>
+    <t>﻿44801.18359375</t>
+  </si>
+  <si>
+    <t>﻿70.25435322379452</t>
+  </si>
+  <si>
+    <t>﻿4310.065085424717</t>
+  </si>
+  <si>
+    <t>﻿-135962.015625</t>
+  </si>
+  <si>
+    <t>﻿184100.421875</t>
+  </si>
+  <si>
+    <t>﻿-22.75542307152987</t>
+  </si>
+  <si>
+    <t>﻿11232.86423772978</t>
+  </si>
+  <si>
+    <t>﻿-69339.609375</t>
+  </si>
+  <si>
+    <t>﻿115818.84375</t>
+  </si>
+  <si>
+    <t>﻿-31.97886733815204</t>
+  </si>
+  <si>
+    <t>﻿5543.745746014502</t>
+  </si>
+  <si>
+    <t>﻿-93225.7265625</t>
+  </si>
+  <si>
+    <t>﻿98863.34375</t>
+  </si>
+  <si>
+    <t>﻿-9.223441819252599</t>
+  </si>
+  <si>
+    <t>﻿7158.319878659258</t>
+  </si>
+  <si>
+    <t>﻿-59682.6328125</t>
+  </si>
+  <si>
+    <t>﻿54505.109375</t>
+  </si>
+  <si>
+    <t>﻿13.58358073410742</t>
+  </si>
+  <si>
+    <t>﻿6651.969659428097</t>
+  </si>
+  <si>
+    <t>﻿-31722.41796875</t>
+  </si>
+  <si>
+    <t>﻿31443.888671875</t>
+  </si>
+  <si>
+    <t>﻿101.5890315121301</t>
+  </si>
+  <si>
+    <t>﻿3081.128327099453</t>
+  </si>
+  <si>
+    <t>﻿-36706.56640625</t>
+  </si>
+  <si>
+    <t>﻿39697.69140625</t>
+  </si>
+  <si>
+    <t>﻿88.0054485163149</t>
+  </si>
+  <si>
+    <t>﻿4565.768624052663</t>
+  </si>
+  <si>
+    <t>﻿-100739.2734375</t>
+  </si>
+  <si>
+    <t>﻿85468.5703125</t>
+  </si>
+  <si>
+    <t>﻿-11.00599476355315</t>
+  </si>
+  <si>
+    <t>﻿11916.31553877622</t>
+  </si>
+  <si>
+    <t>﻿-57117.1328125</t>
+  </si>
+  <si>
+    <t>﻿47347.83984375</t>
+  </si>
+  <si>
+    <t>﻿-6.688745860539111</t>
+  </si>
+  <si>
+    <t>﻿5573.79637319662</t>
+  </si>
+  <si>
+    <t>﻿-57706.02734375</t>
+  </si>
+  <si>
+    <t>﻿57989.33984375</t>
+  </si>
+  <si>
+    <t>﻿4.317246557297499</t>
+  </si>
+  <si>
+    <t>﻿7881.660339093418</t>
+  </si>
+  <si>
+    <t>﻿-130842.265625</t>
+  </si>
+  <si>
+    <t>﻿124544.1171875</t>
+  </si>
+  <si>
+    <t>﻿-8.854747045348576</t>
+  </si>
+  <si>
+    <t>﻿12063.79436369717</t>
+  </si>
+  <si>
+    <t>﻿-49763.3828125</t>
+  </si>
+  <si>
+    <t>﻿75726.15625</t>
+  </si>
+  <si>
+    <t>﻿-105.5603996744367</t>
+  </si>
+  <si>
+    <t>﻿5675.185812980392</t>
+  </si>
+  <si>
+    <t>﻿-78206.9921875</t>
+  </si>
+  <si>
+    <t>﻿90160.28125</t>
+  </si>
+  <si>
+    <t>﻿-96.70564695300278</t>
+  </si>
+  <si>
+    <t>﻿7785.12161071057</t>
+  </si>
+  <si>
+    <t>﻿-67001.6875</t>
+  </si>
+  <si>
+    <t>﻿81178.8515625</t>
+  </si>
+  <si>
+    <t>﻿5.987126199758885</t>
+  </si>
+  <si>
+    <t>﻿6180.19838980121</t>
+  </si>
+  <si>
+    <t>﻿-38776.95703125</t>
+  </si>
+  <si>
+    <t>﻿49714.58984375</t>
+  </si>
+  <si>
+    <t>﻿219.478579142396</t>
+  </si>
+  <si>
+    <t>﻿2768.165865079538</t>
+  </si>
+  <si>
+    <t>﻿-45640.20703125</t>
+  </si>
+  <si>
+    <t>﻿46971.80078125</t>
+  </si>
+  <si>
+    <t>﻿213.4914534374944</t>
+  </si>
+  <si>
+    <t>﻿4255.107962099599</t>
+  </si>
+  <si>
+    <t>﻿-46857.09375</t>
+  </si>
+  <si>
+    <t>﻿68019.6796875</t>
+  </si>
+  <si>
+    <t>﻿0.4710756232856027</t>
+  </si>
+  <si>
+    <t>﻿5451.785547996267</t>
+  </si>
+  <si>
+    <t>﻿-21966.7578125</t>
+  </si>
+  <si>
+    <t>﻿32749.564453125</t>
+  </si>
+  <si>
+    <t>﻿163.1209524699091</t>
+  </si>
+  <si>
+    <t>﻿2406.131974246149</t>
+  </si>
+  <si>
+    <t>﻿-35484.9140625</t>
+  </si>
+  <si>
+    <t>﻿38052.73828125</t>
+  </si>
+  <si>
+    <t>﻿162.64987799325</t>
+  </si>
+  <si>
+    <t>﻿3781.693439224596</t>
+  </si>
+  <si>
+    <t>﻿-78710.8203125</t>
+  </si>
+  <si>
+    <t>﻿69861.9921875</t>
+  </si>
+  <si>
+    <t>﻿-3.072525641309833</t>
+  </si>
+  <si>
+    <t>﻿6120.699138456616</t>
+  </si>
+  <si>
+    <t>﻿-36478.05078125</t>
+  </si>
+  <si>
+    <t>﻿31812.55078125</t>
+  </si>
+  <si>
+    <t>﻿154.1265199685404</t>
+  </si>
+  <si>
+    <t>﻿2874.48717628093</t>
+  </si>
+  <si>
+    <t>﻿-44204.08203125</t>
+  </si>
+  <si>
+    <t>﻿42232.76953125</t>
+  </si>
+  <si>
+    <t>﻿157.1990448446899</t>
+  </si>
+  <si>
+    <t>﻿3978.717177284394</t>
+  </si>
+  <si>
+    <t>﻿-189591.40625</t>
+  </si>
+  <si>
+    <t>﻿151123.328125</t>
+  </si>
+  <si>
+    <t>﻿-21.54302746634848</t>
+  </si>
+  <si>
+    <t>﻿15164.98548653812</t>
+  </si>
+  <si>
+    <t>﻿-105936.7890625</t>
+  </si>
+  <si>
+    <t>﻿86301.3125</t>
+  </si>
+  <si>
+    <t>﻿-344.1734205373965</t>
+  </si>
+  <si>
+    <t>﻿7372.784808873929</t>
+  </si>
+  <si>
+    <t>﻿-93621.3984375</t>
+  </si>
+  <si>
+    <t>﻿92165.296875</t>
+  </si>
+  <si>
+    <t>﻿-322.6303947230522</t>
+  </si>
+  <si>
+    <t>﻿9809.604676823903</t>
+  </si>
+  <si>
+    <t>﻿-105568.421875</t>
+  </si>
+  <si>
+    <t>﻿111728.2734375</t>
+  </si>
+  <si>
+    <t>﻿-23.24378454835922</t>
+  </si>
+  <si>
+    <t>﻿8382.479407266819</t>
+  </si>
+  <si>
+    <t>﻿-44388.91015625</t>
+  </si>
+  <si>
+    <t>﻿83664.640625</t>
+  </si>
+  <si>
+    <t>﻿226.0474557479223</t>
+  </si>
+  <si>
+    <t>﻿3637.4138929693</t>
+  </si>
+  <si>
+    <t>﻿-71407.4765625</t>
+  </si>
+  <si>
+    <t>﻿72716.5625</t>
+  </si>
+  <si>
+    <t>﻿249.2912422097514</t>
+  </si>
+  <si>
+    <t>﻿5856.125748021162</t>
+  </si>
+  <si>
+    <t>﻿-110228.328125</t>
+  </si>
+  <si>
+    <t>﻿84725.671875</t>
+  </si>
+  <si>
+    <t>﻿-3.588852875444545</t>
+  </si>
+  <si>
+    <t>﻿7746.374453257757</t>
+  </si>
+  <si>
+    <t>﻿-76021.265625</t>
+  </si>
+  <si>
+    <t>﻿53351.12109375</t>
+  </si>
+  <si>
+    <t>﻿180.0389363144962</t>
+  </si>
+  <si>
+    <t>﻿3410.738412915767</t>
+  </si>
+  <si>
+    <t>﻿-47230.5703125</t>
+  </si>
+  <si>
+    <t>﻿60041.07421875</t>
+  </si>
+  <si>
+    <t>﻿183.6277888771339</t>
+  </si>
+  <si>
+    <t>﻿5421.851815452134</t>
+  </si>
+  <si>
+    <t>﻿-113057.5625</t>
+  </si>
+  <si>
+    <t>﻿94997.0625</t>
+  </si>
+  <si>
+    <t>﻿18.56381545197719</t>
+  </si>
+  <si>
+    <t>﻿9272.965261967282</t>
+  </si>
+  <si>
+    <t>﻿-77939.5078125</t>
+  </si>
+  <si>
+    <t>﻿63492.15234375</t>
+  </si>
+  <si>
+    <t>﻿85.82004694795181</t>
+  </si>
+  <si>
+    <t>﻿4347.668736138707</t>
+  </si>
+  <si>
+    <t>﻿-61546.70703125</t>
+  </si>
+  <si>
+    <t>﻿62662.53515625</t>
+  </si>
+  <si>
+    <t>﻿67.25622742999023</t>
+  </si>
+  <si>
+    <t>﻿6058.583776360832</t>
+  </si>
+  <si>
+    <t>﻿-79605</t>
+  </si>
+  <si>
+    <t>﻿50441.4765625</t>
+  </si>
+  <si>
+    <t>﻿3.278939053141096</t>
+  </si>
+  <si>
+    <t>﻿6726.789586848631</t>
+  </si>
+  <si>
+    <t>﻿-37430.94140625</t>
+  </si>
+  <si>
+    <t>﻿26780.46484375</t>
+  </si>
+  <si>
+    <t>﻿124.9227783641518</t>
+  </si>
+  <si>
+    <t>﻿3261.948836784396</t>
+  </si>
+  <si>
+    <t>﻿-33802.49609375</t>
+  </si>
+  <si>
+    <t>﻿42174.0546875</t>
+  </si>
+  <si>
+    <t>﻿121.6438390138266</t>
+  </si>
+  <si>
+    <t>﻿4282.973941018729</t>
+  </si>
+  <si>
+    <t>﻿-48516.9609375</t>
+  </si>
+  <si>
+    <t>﻿44731.77734375</t>
+  </si>
+  <si>
+    <t>﻿-15.08560448060154</t>
+  </si>
+  <si>
+    <t>﻿6157.300617780995</t>
+  </si>
+  <si>
+    <t>﻿-35157.30078125</t>
+  </si>
+  <si>
+    <t>﻿26354.185546875</t>
+  </si>
+  <si>
+    <t>﻿132.1720362274272</t>
+  </si>
+  <si>
+    <t>﻿2952.002709382852</t>
+  </si>
+  <si>
+    <t>﻿-24172.005859375</t>
+  </si>
+  <si>
+    <t>﻿28797.314453125</t>
+  </si>
+  <si>
+    <t>﻿147.2576422766193</t>
+  </si>
+  <si>
+    <t>﻿3970.911536098977</t>
+  </si>
+  <si>
+    <t>﻿-92679.8984375</t>
+  </si>
+  <si>
+    <t>﻿93582.6015625</t>
+  </si>
+  <si>
+    <t>﻿-3.476270651628245</t>
+  </si>
+  <si>
+    <t>﻿9102.496026912149</t>
+  </si>
+  <si>
+    <t>﻿-53631.55078125</t>
+  </si>
+  <si>
+    <t>﻿51617.3359375</t>
+  </si>
+  <si>
+    <t>﻿105.8045047788832</t>
+  </si>
+  <si>
+    <t>﻿4329.263848909311</t>
+  </si>
+  <si>
+    <t>﻿-52245.7265625</t>
+  </si>
+  <si>
+    <t>﻿48715.41015625</t>
+  </si>
+  <si>
+    <t>﻿109.2807759364522</t>
+  </si>
+  <si>
+    <t>﻿5868.212269493606</t>
+  </si>
+  <si>
+    <t>﻿-78936.125</t>
+  </si>
+  <si>
+    <t>﻿119264.1015625</t>
+  </si>
+  <si>
+    <t>﻿18.95665064181388</t>
+  </si>
+  <si>
+    <t>﻿8417.960473560479</t>
+  </si>
+  <si>
+    <t>﻿-38377.03515625</t>
+  </si>
+  <si>
+    <t>﻿57585.4921875</t>
+  </si>
+  <si>
+    <t>﻿112.4199000164411</t>
+  </si>
+  <si>
+    <t>﻿4043.882895211934</t>
+  </si>
+  <si>
+    <t>﻿-61678.60546875</t>
+  </si>
+  <si>
+    <t>﻿40559.08984375</t>
+  </si>
+  <si>
+    <t>﻿93.46325076156306</t>
+  </si>
+  <si>
+    <t>﻿5403.230167762248</t>
+  </si>
+  <si>
+    <t>﻿-143074.25</t>
+  </si>
+  <si>
+    <t>﻿105557.46875</t>
+  </si>
+  <si>
+    <t>﻿10.21610930063875</t>
+  </si>
+  <si>
+    <t>﻿9098.436145291445</t>
+  </si>
+  <si>
+    <t>﻿-76341.359375</t>
+  </si>
+  <si>
+    <t>﻿62465.328125</t>
+  </si>
+  <si>
+    <t>﻿121.8346050067163</t>
+  </si>
+  <si>
+    <t>﻿4391.236222941128</t>
+  </si>
+  <si>
+    <t>﻿-60859.4140625</t>
+  </si>
+  <si>
+    <t>﻿66732.890625</t>
+  </si>
+  <si>
+    <t>﻿111.6184959089464</t>
+  </si>
+  <si>
+    <t>﻿5812.454675614805</t>
+  </si>
+  <si>
+    <t>﻿-64001.74609375</t>
+  </si>
+  <si>
+    <t>﻿58183.30078125</t>
+  </si>
+  <si>
+    <t>﻿21.18763026793478</t>
+  </si>
+  <si>
+    <t>﻿6014.966500524609</t>
+  </si>
+  <si>
+    <t>﻿-31937.05859375</t>
+  </si>
+  <si>
+    <t>﻿30746.24609375</t>
+  </si>
+  <si>
+    <t>﻿99.48652905708558</t>
+  </si>
+  <si>
+    <t>﻿2770.566235189132</t>
+  </si>
+  <si>
+    <t>﻿-39631.7421875</t>
+  </si>
+  <si>
+    <t>﻿48100.265625</t>
+  </si>
+  <si>
+    <t>﻿78.29889705304738</t>
+  </si>
+  <si>
+    <t>﻿4043.024844493094</t>
+  </si>
+  <si>
+    <t>﻿-94722.5390625</t>
+  </si>
+  <si>
+    <t>﻿82953.8671875</t>
+  </si>
+  <si>
+    <t>﻿17.3321120464005</t>
+  </si>
+  <si>
+    <t>﻿8621.500639137432</t>
+  </si>
+  <si>
+    <t>﻿-54001.9140625</t>
+  </si>
+  <si>
+    <t>﻿59129.7734375</t>
+  </si>
+  <si>
+    <t>﻿135.3759904517056</t>
+  </si>
+  <si>
+    <t>﻿4025.556353457413</t>
+  </si>
+  <si>
+    <t>﻿-47754.50390625</t>
+  </si>
+  <si>
+    <t>﻿47029.46484375</t>
+  </si>
+  <si>
+    <t>﻿118.0438751422185</t>
+  </si>
+  <si>
+    <t>﻿5745.654749000194</t>
+  </si>
+  <si>
+    <t>﻿-177645.546875</t>
+  </si>
+  <si>
+    <t>﻿120519.875</t>
+  </si>
+  <si>
+    <t>﻿30.80792293966822</t>
+  </si>
+  <si>
+    <t>﻿12272.27828687517</t>
+  </si>
+  <si>
+    <t>﻿-111126.9609375</t>
+  </si>
+  <si>
+    <t>﻿91346.828125</t>
+  </si>
+  <si>
+    <t>﻿45.64092514613569</t>
+  </si>
+  <si>
+    <t>﻿5977.229321001747</t>
+  </si>
+  <si>
+    <t>﻿-59257.76171875</t>
+  </si>
+  <si>
+    <t>﻿84534.875</t>
+  </si>
+  <si>
+    <t>﻿14.83300139623916</t>
+  </si>
+  <si>
+    <t>﻿7801.123891498165</t>
   </si>
 </sst>
 </file>
@@ -126,8 +966,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -240,7 +1082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -293,6 +1135,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -345,6 +1188,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,21 +1518,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -719,8 +1569,20 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -751,8 +1613,20 @@
       <c r="J2">
         <v>10211.310267000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -783,8 +1657,20 @@
       <c r="J3">
         <v>11504.064623</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -815,8 +1701,20 @@
       <c r="J4">
         <v>8228.5135630000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -847,8 +1745,20 @@
       <c r="J5">
         <v>6582.8843930000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -879,8 +1789,20 @@
       <c r="J6">
         <v>11241.558085999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -911,8 +1833,20 @@
       <c r="J7">
         <v>6640.3245040000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -943,8 +1877,20 @@
       <c r="J8">
         <v>11933.832316</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -975,8 +1921,20 @@
       <c r="J9">
         <v>12051.02291</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1007,8 +1965,20 @@
       <c r="J10">
         <v>6177.7777249999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1039,8 +2009,20 @@
       <c r="J11">
         <v>5450.2821020000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1071,8 +2053,20 @@
       <c r="J12">
         <v>6125.0767409999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1103,8 +2097,20 @@
       <c r="J13">
         <v>15139.80918</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1135,8 +2141,20 @@
       <c r="J14" s="3">
         <v>8394.3510989999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1167,8 +2185,20 @@
       <c r="J15" s="3">
         <v>7746.0514899999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1199,8 +2229,20 @@
       <c r="J16">
         <v>9277.4813969999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s">
+        <v>188</v>
+      </c>
+      <c r="O16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1231,8 +2273,20 @@
       <c r="J17">
         <v>6726.4234059999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1263,8 +2317,20 @@
       <c r="J18">
         <v>6157.7164089999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="s">
+        <v>210</v>
+      </c>
+      <c r="M18" t="s">
+        <v>211</v>
+      </c>
+      <c r="N18" t="s">
+        <v>212</v>
+      </c>
+      <c r="O18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1295,8 +2361,20 @@
       <c r="J19">
         <v>9120.9722089999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" t="s">
+        <v>223</v>
+      </c>
+      <c r="N19" t="s">
+        <v>224</v>
+      </c>
+      <c r="O19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1327,8 +2405,20 @@
       <c r="J20">
         <v>8421.8076760000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="s">
+        <v>234</v>
+      </c>
+      <c r="M20" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" t="s">
+        <v>236</v>
+      </c>
+      <c r="O20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1359,8 +2449,20 @@
       <c r="J21">
         <v>9108.5376219999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" t="s">
+        <v>247</v>
+      </c>
+      <c r="N21" t="s">
+        <v>248</v>
+      </c>
+      <c r="O21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1391,8 +2493,20 @@
       <c r="J22">
         <v>6006.4417119999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" t="s">
+        <v>260</v>
+      </c>
+      <c r="O22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1423,8 +2537,20 @@
       <c r="J23">
         <v>8616.8592590000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="s">
+        <v>270</v>
+      </c>
+      <c r="M23" t="s">
+        <v>271</v>
+      </c>
+      <c r="N23" t="s">
+        <v>272</v>
+      </c>
+      <c r="O23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1454,6 +2580,18 @@
       </c>
       <c r="J24">
         <v>12259.073715</v>
+      </c>
+      <c r="L24" t="s">
+        <v>282</v>
+      </c>
+      <c r="M24" t="s">
+        <v>283</v>
+      </c>
+      <c r="N24" t="s">
+        <v>284</v>
+      </c>
+      <c r="O24" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1469,21 +2607,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1514,8 +2657,20 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1546,8 +2701,20 @@
       <c r="J2">
         <v>4772.9701919999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1578,8 +2745,20 @@
       <c r="J3">
         <v>5437.3158620000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1610,8 +2789,20 @@
       <c r="J4">
         <v>4088.9389310000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1642,8 +2833,20 @@
       <c r="J5">
         <v>3159.09411</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1674,8 +2877,20 @@
       <c r="J6">
         <v>5548.3996319999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1706,8 +2921,20 @@
       <c r="J7">
         <v>3078.0392360000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1738,8 +2965,20 @@
       <c r="J8">
         <v>5573.5494909999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1770,8 +3009,20 @@
       <c r="J9">
         <v>5672.886426</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1802,8 +3053,20 @@
       <c r="J10">
         <v>2768.1173910000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1834,8 +3097,20 @@
       <c r="J11">
         <v>2404.8693429999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1866,8 +3141,20 @@
       <c r="J12">
         <v>2875.2475869999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1898,8 +3185,20 @@
       <c r="J13">
         <v>7363.5913609999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1930,8 +3229,20 @@
       <c r="J14" s="3">
         <v>3645.1867569999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1962,8 +3273,20 @@
       <c r="J15" s="3">
         <v>3408.752837</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1994,8 +3317,20 @@
       <c r="J16">
         <v>4347.5604960000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s">
+        <v>191</v>
+      </c>
+      <c r="N16" t="s">
+        <v>192</v>
+      </c>
+      <c r="O16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2026,8 +3361,20 @@
       <c r="J17">
         <v>3261.4611169999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2058,8 +3405,20 @@
       <c r="J18">
         <v>2951.3188719999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" t="s">
+        <v>216</v>
+      </c>
+      <c r="O18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2090,8 +3449,20 @@
       <c r="J19">
         <v>4334.7871660000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" t="s">
+        <v>226</v>
+      </c>
+      <c r="M19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>228</v>
+      </c>
+      <c r="O19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2122,8 +3493,20 @@
       <c r="J20">
         <v>4045.466488</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20" t="s">
+        <v>240</v>
+      </c>
+      <c r="O20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2154,8 +3537,20 @@
       <c r="J21">
         <v>4395.6796850000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>250</v>
+      </c>
+      <c r="M21" t="s">
+        <v>251</v>
+      </c>
+      <c r="N21" t="s">
+        <v>252</v>
+      </c>
+      <c r="O21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2186,8 +3581,20 @@
       <c r="J22">
         <v>2766.8014210000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M22" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" t="s">
+        <v>264</v>
+      </c>
+      <c r="O22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2218,8 +3625,20 @@
       <c r="J23">
         <v>4023.072885</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="s">
+        <v>274</v>
+      </c>
+      <c r="M23" t="s">
+        <v>275</v>
+      </c>
+      <c r="N23" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2249,6 +3668,18 @@
       </c>
       <c r="J24">
         <v>5972.5656269999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>286</v>
+      </c>
+      <c r="M24" t="s">
+        <v>287</v>
+      </c>
+      <c r="N24" t="s">
+        <v>288</v>
+      </c>
+      <c r="O24" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2264,22 +3695,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2310,8 +3745,20 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2342,8 +3789,20 @@
       <c r="J2">
         <v>6890.1320669999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2374,8 +3833,20 @@
       <c r="J3">
         <v>7526.4032829999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2406,8 +3877,20 @@
       <c r="J4">
         <v>5309.8213269999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2438,8 +3921,20 @@
       <c r="J5">
         <v>4319.5049749999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2470,8 +3965,20 @@
       <c r="J6">
         <v>7163.988746</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2502,8 +4009,20 @@
       <c r="J7">
         <v>4557.7031200000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2534,8 +4053,20 @@
       <c r="J8">
         <v>7900.9146039999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2566,8 +4097,20 @@
       <c r="J9">
         <v>7775.0747469999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2598,8 +4141,20 @@
       <c r="J10">
         <v>4256.0839470000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2630,8 +4185,20 @@
       <c r="J11">
         <v>3782.0114170000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2662,8 +4229,20 @@
       <c r="J12">
         <v>3981.416698</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N12" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2694,8 +4273,20 @@
       <c r="J13">
         <v>9797.0914479999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2726,8 +4317,20 @@
       <c r="J14" s="2">
         <v>5859.4858999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="L14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2758,8 +4361,20 @@
       <c r="J15">
         <v>5422.7754629999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="s">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2790,8 +4405,20 @@
       <c r="J16">
         <v>6063.3135350000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2822,8 +4449,20 @@
       <c r="J17">
         <v>4283.4623220000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s">
+        <v>208</v>
+      </c>
+      <c r="O17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2854,8 +4493,20 @@
       <c r="J18">
         <v>3973.0706340000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2886,8 +4537,20 @@
       <c r="J19">
         <v>5881.8981130000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N19" t="s">
+        <v>232</v>
+      </c>
+      <c r="O19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2918,8 +4581,20 @@
       <c r="J20">
         <v>5405.6438870000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="s">
+        <v>242</v>
+      </c>
+      <c r="M20" t="s">
+        <v>243</v>
+      </c>
+      <c r="N20" t="s">
+        <v>244</v>
+      </c>
+      <c r="O20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2950,8 +4625,20 @@
       <c r="J21">
         <v>5818.3414240000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>254</v>
+      </c>
+      <c r="M21" t="s">
+        <v>255</v>
+      </c>
+      <c r="N21" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2982,8 +4669,20 @@
       <c r="J22">
         <v>4036.4183560000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="s">
+        <v>266</v>
+      </c>
+      <c r="M22" t="s">
+        <v>267</v>
+      </c>
+      <c r="N22" t="s">
+        <v>268</v>
+      </c>
+      <c r="O22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3014,8 +4713,20 @@
       <c r="J23">
         <v>5743.853521</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="s">
+        <v>278</v>
+      </c>
+      <c r="M23" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" t="s">
+        <v>280</v>
+      </c>
+      <c r="O23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3045,6 +4756,18 @@
       </c>
       <c r="J24">
         <v>7789.2204760000004</v>
+      </c>
+      <c r="L24" t="s">
+        <v>290</v>
+      </c>
+      <c r="M24" t="s">
+        <v>291</v>
+      </c>
+      <c r="N24" t="s">
+        <v>292</v>
+      </c>
+      <c r="O24" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data/GIS_MPQ_Analysis_3cm_Curvature.xlsx
+++ b/data/GIS_MPQ_Analysis_3cm_Curvature.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jennifer\Documents\GitRepos\kiritimati_3D_Mosaic\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28600" yWindow="640" windowWidth="21740" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="28605" yWindow="645" windowWidth="21735" windowHeight="13035" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Curvature" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="295">
   <si>
     <t>Site</t>
   </si>
@@ -62,9 +67,6 @@
     <t>MPQ_3</t>
   </si>
   <si>
-    <t>May_2015</t>
-  </si>
-  <si>
     <t>MEAN_CLIP</t>
   </si>
   <si>
@@ -903,12 +905,18 @@
   </si>
   <si>
     <t>﻿7801.123891498165</t>
+  </si>
+  <si>
+    <t>2015b</t>
+  </si>
+  <si>
+    <t>2016a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -957,12 +965,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1075,12 +1092,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1193,6 +1215,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1518,73 +1548,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1614,21 +1647,21 @@
         <v>10211.310267000001</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1658,21 +1691,21 @@
         <v>11504.064623</v>
       </c>
       <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1702,21 +1735,21 @@
         <v>8228.5135630000004</v>
       </c>
       <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1746,21 +1779,21 @@
         <v>6582.8843930000003</v>
       </c>
       <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1790,21 +1823,21 @@
         <v>11241.558085999999</v>
       </c>
       <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>67</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="O6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1834,21 +1867,21 @@
         <v>6640.3245040000002</v>
       </c>
       <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>80</v>
       </c>
-      <c r="O7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -1878,21 +1911,21 @@
         <v>11933.832316</v>
       </c>
       <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
         <v>90</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -1922,21 +1955,21 @@
         <v>12051.02291</v>
       </c>
       <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
         <v>102</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="O9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -1966,21 +1999,21 @@
         <v>6177.7777249999999</v>
       </c>
       <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="s">
         <v>114</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>116</v>
       </c>
-      <c r="O10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -2010,21 +2043,21 @@
         <v>5450.2821020000001</v>
       </c>
       <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="s">
         <v>126</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>127</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>128</v>
       </c>
-      <c r="O11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -2054,21 +2087,21 @@
         <v>6125.0767409999999</v>
       </c>
       <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
         <v>138</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>139</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>140</v>
       </c>
-      <c r="O12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -2098,21 +2131,21 @@
         <v>15139.80918</v>
       </c>
       <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s">
         <v>150</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>151</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>152</v>
       </c>
-      <c r="O13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
+    </row>
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>293</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
@@ -2142,21 +2175,21 @@
         <v>8394.3510989999995</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -2186,21 +2219,21 @@
         <v>7746.0514899999998</v>
       </c>
       <c r="L15" t="s">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s">
         <v>174</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>175</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>176</v>
       </c>
-      <c r="O15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -2230,21 +2263,21 @@
         <v>9277.4813969999996</v>
       </c>
       <c r="L16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s">
         <v>186</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>187</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>188</v>
       </c>
-      <c r="O16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -2274,21 +2307,21 @@
         <v>6726.4234059999999</v>
       </c>
       <c r="L17" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" t="s">
         <v>198</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>199</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>200</v>
       </c>
-      <c r="O17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -2318,21 +2351,21 @@
         <v>6157.7164089999997</v>
       </c>
       <c r="L18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s">
         <v>210</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>211</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>212</v>
       </c>
-      <c r="O18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -2362,21 +2395,21 @@
         <v>9120.9722089999996</v>
       </c>
       <c r="L19" t="s">
+        <v>221</v>
+      </c>
+      <c r="M19" t="s">
         <v>222</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>223</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>224</v>
       </c>
-      <c r="O19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -2406,21 +2439,21 @@
         <v>8421.8076760000004</v>
       </c>
       <c r="L20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s">
         <v>234</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>235</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>236</v>
       </c>
-      <c r="O20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -2450,21 +2483,21 @@
         <v>9108.5376219999998</v>
       </c>
       <c r="L21" t="s">
+        <v>245</v>
+      </c>
+      <c r="M21" t="s">
         <v>246</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>247</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>248</v>
       </c>
-      <c r="O21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -2494,21 +2527,21 @@
         <v>6006.4417119999998</v>
       </c>
       <c r="L22" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" t="s">
         <v>258</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>259</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>260</v>
       </c>
-      <c r="O22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -2538,60 +2571,303 @@
         <v>8616.8592590000007</v>
       </c>
       <c r="L23" t="s">
+        <v>269</v>
+      </c>
+      <c r="M23" t="s">
         <v>270</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>271</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>272</v>
       </c>
-      <c r="O23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="7">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>18845</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>16.9605</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>-177645.546875</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>120519.875</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>298165.421875</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>32.655202000000003</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>12259.073715</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="O24" t="s">
-        <v>285</v>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="5">
+        <v>35</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2607,72 +2883,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2702,21 +2981,21 @@
         <v>4772.9701919999998</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2746,21 +3025,21 @@
         <v>5437.3158620000004</v>
       </c>
       <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2790,21 +3069,21 @@
         <v>4088.9389310000001</v>
       </c>
       <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2834,21 +3113,21 @@
         <v>3159.09411</v>
       </c>
       <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
         <v>58</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>59</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>60</v>
       </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -2878,21 +3157,21 @@
         <v>5548.3996319999997</v>
       </c>
       <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -2922,21 +3201,21 @@
         <v>3078.0392360000001</v>
       </c>
       <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s">
         <v>82</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="O7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -2966,21 +3245,21 @@
         <v>5573.5494909999998</v>
       </c>
       <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="s">
         <v>94</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
       </c>
-      <c r="O8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -3010,21 +3289,21 @@
         <v>5672.886426</v>
       </c>
       <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>108</v>
       </c>
-      <c r="O9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -3054,21 +3333,21 @@
         <v>2768.1173910000002</v>
       </c>
       <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="s">
         <v>118</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>120</v>
       </c>
-      <c r="O10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -3098,21 +3377,21 @@
         <v>2404.8693429999998</v>
       </c>
       <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="s">
         <v>130</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>132</v>
       </c>
-      <c r="O11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -3142,21 +3421,21 @@
         <v>2875.2475869999998</v>
       </c>
       <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="s">
         <v>142</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>143</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>144</v>
       </c>
-      <c r="O12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -3186,21 +3465,21 @@
         <v>7363.5913609999998</v>
       </c>
       <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="s">
         <v>154</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>155</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>156</v>
       </c>
-      <c r="O13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -3230,21 +3509,21 @@
         <v>3645.1867569999999</v>
       </c>
       <c r="L14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s">
         <v>166</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>167</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>168</v>
       </c>
-      <c r="O14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -3274,21 +3553,21 @@
         <v>3408.752837</v>
       </c>
       <c r="L15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s">
         <v>178</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>179</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>180</v>
       </c>
-      <c r="O15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -3318,21 +3597,21 @@
         <v>4347.5604960000001</v>
       </c>
       <c r="L16" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s">
         <v>190</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>191</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>192</v>
       </c>
-      <c r="O16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -3362,21 +3641,21 @@
         <v>3261.4611169999998</v>
       </c>
       <c r="L17" t="s">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s">
         <v>202</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>203</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>204</v>
       </c>
-      <c r="O17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -3406,21 +3685,21 @@
         <v>2951.3188719999998</v>
       </c>
       <c r="L18" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s">
         <v>214</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>215</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>216</v>
       </c>
-      <c r="O18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -3450,21 +3729,21 @@
         <v>4334.7871660000001</v>
       </c>
       <c r="L19" t="s">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s">
         <v>226</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>227</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>228</v>
       </c>
-      <c r="O19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -3494,21 +3773,21 @@
         <v>4045.466488</v>
       </c>
       <c r="L20" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" t="s">
         <v>238</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>239</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>240</v>
       </c>
-      <c r="O20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -3538,21 +3817,21 @@
         <v>4395.6796850000001</v>
       </c>
       <c r="L21" t="s">
+        <v>249</v>
+      </c>
+      <c r="M21" t="s">
         <v>250</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>251</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>252</v>
       </c>
-      <c r="O21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -3582,21 +3861,21 @@
         <v>2766.8014210000001</v>
       </c>
       <c r="L22" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22" t="s">
         <v>262</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>263</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>264</v>
       </c>
-      <c r="O22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -3626,60 +3905,303 @@
         <v>4023.072885</v>
       </c>
       <c r="L23" t="s">
+        <v>273</v>
+      </c>
+      <c r="M23" t="s">
         <v>274</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>275</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>276</v>
       </c>
-      <c r="O23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="7">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>18845</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>16.9605</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>-111126.960938</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>91346.828125</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>202473.789063</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>46.561487</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>5972.5656269999999</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="O24" t="s">
-        <v>289</v>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="5">
+        <v>35</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3695,72 +4217,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -3790,21 +4315,21 @@
         <v>6890.1320669999996</v>
       </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -3834,21 +4359,21 @@
         <v>7526.4032829999996</v>
       </c>
       <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -3878,21 +4403,21 @@
         <v>5309.8213269999997</v>
       </c>
       <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>51</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -3922,21 +4447,21 @@
         <v>4319.5049749999998</v>
       </c>
       <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
         <v>62</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>64</v>
       </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -3966,21 +4491,21 @@
         <v>7163.988746</v>
       </c>
       <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -4010,21 +4535,21 @@
         <v>4557.7031200000001</v>
       </c>
       <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -4054,21 +4579,21 @@
         <v>7900.9146039999996</v>
       </c>
       <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>100</v>
       </c>
-      <c r="O8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -4098,21 +4623,21 @@
         <v>7775.0747469999997</v>
       </c>
       <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
         <v>110</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>112</v>
       </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -4142,21 +4667,21 @@
         <v>4256.0839470000001</v>
       </c>
       <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
         <v>122</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>124</v>
       </c>
-      <c r="O10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -4186,21 +4711,21 @@
         <v>3782.0114170000002</v>
       </c>
       <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>135</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="O11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B12">
         <v>27</v>
@@ -4230,21 +4755,21 @@
         <v>3981.416698</v>
       </c>
       <c r="L12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s">
         <v>146</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>147</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>148</v>
       </c>
-      <c r="O12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -4274,21 +4799,21 @@
         <v>9797.0914479999992</v>
       </c>
       <c r="L13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s">
         <v>158</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>159</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>160</v>
       </c>
-      <c r="O13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -4318,21 +4843,21 @@
         <v>5859.4858999999997</v>
       </c>
       <c r="L14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" t="s">
         <v>170</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>171</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>172</v>
       </c>
-      <c r="O14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -4362,21 +4887,21 @@
         <v>5422.7754629999999</v>
       </c>
       <c r="L15" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s">
         <v>182</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>183</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>184</v>
       </c>
-      <c r="O15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -4406,21 +4931,21 @@
         <v>6063.3135350000002</v>
       </c>
       <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
         <v>194</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>195</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>196</v>
       </c>
-      <c r="O16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -4450,21 +4975,21 @@
         <v>4283.4623220000003</v>
       </c>
       <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
         <v>206</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>207</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>208</v>
       </c>
-      <c r="O17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -4494,21 +5019,21 @@
         <v>3973.0706340000002</v>
       </c>
       <c r="L18" t="s">
+        <v>217</v>
+      </c>
+      <c r="M18" t="s">
         <v>218</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>219</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>220</v>
       </c>
-      <c r="O18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -4538,21 +5063,21 @@
         <v>5881.8981130000002</v>
       </c>
       <c r="L19" t="s">
+        <v>229</v>
+      </c>
+      <c r="M19" t="s">
         <v>230</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>231</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>232</v>
       </c>
-      <c r="O19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -4582,21 +5107,21 @@
         <v>5405.6438870000002</v>
       </c>
       <c r="L20" t="s">
+        <v>241</v>
+      </c>
+      <c r="M20" t="s">
         <v>242</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>243</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>244</v>
       </c>
-      <c r="O20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -4626,21 +5151,21 @@
         <v>5818.3414240000002</v>
       </c>
       <c r="L21" t="s">
+        <v>253</v>
+      </c>
+      <c r="M21" t="s">
         <v>254</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>255</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>256</v>
       </c>
-      <c r="O21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -4670,21 +5195,21 @@
         <v>4036.4183560000001</v>
       </c>
       <c r="L22" t="s">
+        <v>265</v>
+      </c>
+      <c r="M22" t="s">
         <v>266</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>267</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>268</v>
       </c>
-      <c r="O22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -4714,60 +5239,303 @@
         <v>5743.853521</v>
       </c>
       <c r="L23" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" t="s">
         <v>278</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>279</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>280</v>
       </c>
-      <c r="O23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="7">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>18845</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>16.9605</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>-59257.761719000002</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>84534.875</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>143792.636719</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <v>13.906283999999999</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>7789.2204760000004</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="O24" t="s">
-        <v>293</v>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="5">
+        <v>35</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
